--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H2">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J2">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.16337366666667</v>
+        <v>16.18329966666667</v>
       </c>
       <c r="N2">
-        <v>45.490121</v>
+        <v>48.549899</v>
       </c>
       <c r="O2">
-        <v>0.722233085414401</v>
+        <v>0.6688494993193013</v>
       </c>
       <c r="P2">
-        <v>0.7222330854144011</v>
+        <v>0.6688494993193014</v>
       </c>
       <c r="Q2">
-        <v>1254.576515199774</v>
+        <v>1187.618604451219</v>
       </c>
       <c r="R2">
-        <v>11291.18863679796</v>
+        <v>10688.56744006097</v>
       </c>
       <c r="S2">
-        <v>0.07111903091969611</v>
+        <v>0.08126385480160271</v>
       </c>
       <c r="T2">
-        <v>0.07111903091969612</v>
+        <v>0.08126385480160271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H3">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J3">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2227456666666667</v>
+        <v>0.2227456666666666</v>
       </c>
       <c r="N3">
-        <v>0.6682370000000001</v>
+        <v>0.668237</v>
       </c>
       <c r="O3">
-        <v>0.01060939957266905</v>
+        <v>0.00920599202228272</v>
       </c>
       <c r="P3">
-        <v>0.01060939957266905</v>
+        <v>0.009205992022282724</v>
       </c>
       <c r="Q3">
-        <v>18.42937385872311</v>
+        <v>16.34628927616656</v>
       </c>
       <c r="R3">
-        <v>165.864364728508</v>
+        <v>147.116603485499</v>
       </c>
       <c r="S3">
-        <v>0.001044718431605952</v>
+        <v>0.001118509320504633</v>
       </c>
       <c r="T3">
-        <v>0.001044718431605952</v>
+        <v>0.001118509320504634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H4">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J4">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.016357666666666</v>
+        <v>3.563453666666667</v>
       </c>
       <c r="N4">
-        <v>6.049073</v>
+        <v>10.690361</v>
       </c>
       <c r="O4">
-        <v>0.09603932811449209</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="P4">
-        <v>0.0960393281144921</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="Q4">
-        <v>166.8279784203924</v>
+        <v>261.5056235626719</v>
       </c>
       <c r="R4">
-        <v>1501.451805783532</v>
+        <v>2353.550612064047</v>
       </c>
       <c r="S4">
-        <v>0.009457090908210574</v>
+        <v>0.01789375388980143</v>
       </c>
       <c r="T4">
-        <v>0.009457090908210576</v>
+        <v>0.01789375388980143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H5">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J5">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.428889</v>
+        <v>0.4040503333333333</v>
       </c>
       <c r="N5">
-        <v>1.286667</v>
+        <v>1.212151</v>
       </c>
       <c r="O5">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="P5">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="Q5">
-        <v>35.485115572292</v>
+        <v>29.65141243659744</v>
       </c>
       <c r="R5">
-        <v>319.366040150628</v>
+        <v>266.862711929377</v>
       </c>
       <c r="S5">
-        <v>0.002011568844944437</v>
+        <v>0.002028924156188616</v>
       </c>
       <c r="T5">
-        <v>0.002011568844944437</v>
+        <v>0.002028924156188616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.73729466666667</v>
+        <v>73.38544233333333</v>
       </c>
       <c r="H6">
-        <v>248.211884</v>
+        <v>220.156327</v>
       </c>
       <c r="I6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="J6">
-        <v>0.09847102321391109</v>
+        <v>0.1214979676060253</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.163758666666666</v>
+        <v>3.822177333333334</v>
       </c>
       <c r="N6">
-        <v>9.491275999999999</v>
+        <v>11.466532</v>
       </c>
       <c r="O6">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="P6">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="Q6">
-        <v>261.7608330582204</v>
+        <v>280.4921742831071</v>
       </c>
       <c r="R6">
-        <v>2355.847497523984</v>
+        <v>2524.429568547964</v>
       </c>
       <c r="S6">
-        <v>0.014838614109454</v>
+        <v>0.01919292543792792</v>
       </c>
       <c r="T6">
-        <v>0.014838614109454</v>
+        <v>0.01919292543792792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J7">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.16337366666667</v>
+        <v>16.18329966666667</v>
       </c>
       <c r="N7">
-        <v>45.490121</v>
+        <v>48.549899</v>
       </c>
       <c r="O7">
-        <v>0.722233085414401</v>
+        <v>0.6688494993193013</v>
       </c>
       <c r="P7">
-        <v>0.7222330854144011</v>
+        <v>0.6688494993193014</v>
       </c>
       <c r="Q7">
-        <v>3594.809643823981</v>
+        <v>3836.605427624171</v>
       </c>
       <c r="R7">
-        <v>32353.28679441583</v>
+        <v>34529.44884861753</v>
       </c>
       <c r="S7">
-        <v>0.2037814155709979</v>
+        <v>0.2625231242024531</v>
       </c>
       <c r="T7">
-        <v>0.2037814155709979</v>
+        <v>0.2625231242024531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J8">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2227456666666667</v>
+        <v>0.2227456666666666</v>
       </c>
       <c r="N8">
-        <v>0.6682370000000001</v>
+        <v>0.668237</v>
       </c>
       <c r="O8">
-        <v>0.01060939957266905</v>
+        <v>0.00920599202228272</v>
       </c>
       <c r="P8">
-        <v>0.01060939957266905</v>
+        <v>0.009205992022282724</v>
       </c>
       <c r="Q8">
-        <v>52.80673603747957</v>
+        <v>52.80673603747956</v>
       </c>
       <c r="R8">
-        <v>475.2606243373161</v>
+        <v>475.260624337316</v>
       </c>
       <c r="S8">
-        <v>0.002993491307638354</v>
+        <v>0.003613347680654797</v>
       </c>
       <c r="T8">
-        <v>0.002993491307638354</v>
+        <v>0.003613347680654797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J9">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.016357666666666</v>
+        <v>3.563453666666667</v>
       </c>
       <c r="N9">
-        <v>6.049073</v>
+        <v>10.690361</v>
       </c>
       <c r="O9">
-        <v>0.09603932811449209</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="P9">
-        <v>0.0960393281144921</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="Q9">
-        <v>478.0217216084183</v>
+        <v>844.7946933084611</v>
       </c>
       <c r="R9">
-        <v>4302.195494475764</v>
+        <v>7603.152239776149</v>
       </c>
       <c r="S9">
-        <v>0.02709794196485657</v>
+        <v>0.05780582506612549</v>
       </c>
       <c r="T9">
-        <v>0.02709794196485657</v>
+        <v>0.05780582506612549</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J10">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.428889</v>
+        <v>0.4040503333333333</v>
       </c>
       <c r="N10">
-        <v>1.286667</v>
+        <v>1.212151</v>
       </c>
       <c r="O10">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="P10">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="Q10">
-        <v>101.677525544284</v>
+        <v>95.78897590909646</v>
       </c>
       <c r="R10">
-        <v>915.0977298985561</v>
+        <v>862.100783181868</v>
       </c>
       <c r="S10">
-        <v>0.005763862941329375</v>
+        <v>0.006554445510280624</v>
       </c>
       <c r="T10">
-        <v>0.005763862941329375</v>
+        <v>0.006554445510280623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>711.2156680000001</v>
       </c>
       <c r="I11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689984</v>
       </c>
       <c r="J11">
-        <v>0.2821546391135941</v>
+        <v>0.3924995450689983</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.163758666666666</v>
+        <v>3.822177333333334</v>
       </c>
       <c r="N11">
-        <v>9.491275999999999</v>
+        <v>11.466532</v>
       </c>
       <c r="O11">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="P11">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="Q11">
-        <v>750.0382445013743</v>
+        <v>906.1308017803754</v>
       </c>
       <c r="R11">
-        <v>6750.344200512368</v>
+        <v>8155.177216023377</v>
       </c>
       <c r="S11">
-        <v>0.04251792732877186</v>
+        <v>0.06200280260948439</v>
       </c>
       <c r="T11">
-        <v>0.04251792732877186</v>
+        <v>0.06200280260948438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H12">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J12">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.16337366666667</v>
+        <v>16.18329966666667</v>
       </c>
       <c r="N12">
-        <v>45.490121</v>
+        <v>48.549899</v>
       </c>
       <c r="O12">
-        <v>0.722233085414401</v>
+        <v>0.6688494993193013</v>
       </c>
       <c r="P12">
-        <v>0.7222330854144011</v>
+        <v>0.6688494993193014</v>
       </c>
       <c r="Q12">
-        <v>4205.413312838672</v>
+        <v>2235.930178596463</v>
       </c>
       <c r="R12">
-        <v>37848.71981554805</v>
+        <v>20123.37160736816</v>
       </c>
       <c r="S12">
-        <v>0.2383951204269514</v>
+        <v>0.1529955026798739</v>
       </c>
       <c r="T12">
-        <v>0.2383951204269515</v>
+        <v>0.1529955026798739</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H13">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J13">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2227456666666667</v>
+        <v>0.2227456666666666</v>
       </c>
       <c r="N13">
-        <v>0.6682370000000001</v>
+        <v>0.668237</v>
       </c>
       <c r="O13">
-        <v>0.01060939957266905</v>
+        <v>0.00920599202228272</v>
       </c>
       <c r="P13">
-        <v>0.01060939957266905</v>
+        <v>0.009205992022282724</v>
       </c>
       <c r="Q13">
-        <v>61.77633108365168</v>
+        <v>30.77516751898422</v>
       </c>
       <c r="R13">
-        <v>555.9869797528651</v>
+        <v>276.976507670858</v>
       </c>
       <c r="S13">
-        <v>0.003501956833413233</v>
+        <v>0.002105818092933435</v>
       </c>
       <c r="T13">
-        <v>0.003501956833413233</v>
+        <v>0.002105818092933435</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H14">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J14">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.016357666666666</v>
+        <v>3.563453666666667</v>
       </c>
       <c r="N14">
-        <v>6.049073</v>
+        <v>10.690361</v>
       </c>
       <c r="O14">
-        <v>0.09603932811449209</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="P14">
-        <v>0.0960393281144921</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="Q14">
-        <v>559.2170687902316</v>
+        <v>492.3367766427417</v>
       </c>
       <c r="R14">
-        <v>5032.953619112085</v>
+        <v>4431.030989784675</v>
       </c>
       <c r="S14">
-        <v>0.03170071775158436</v>
+        <v>0.03368857997056429</v>
       </c>
       <c r="T14">
-        <v>0.03170071775158436</v>
+        <v>0.03368857997056428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H15">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J15">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.428889</v>
+        <v>0.4040503333333333</v>
       </c>
       <c r="N15">
-        <v>1.286667</v>
+        <v>1.212151</v>
       </c>
       <c r="O15">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="P15">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="Q15">
-        <v>118.948167471135</v>
+        <v>55.82472997350378</v>
       </c>
       <c r="R15">
-        <v>1070.533507240215</v>
+        <v>502.422569761534</v>
       </c>
       <c r="S15">
-        <v>0.006742895549000284</v>
+        <v>0.003819856588556689</v>
       </c>
       <c r="T15">
-        <v>0.006742895549000284</v>
+        <v>0.003819856588556689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>277.340215</v>
+        <v>138.1628113333333</v>
       </c>
       <c r="H16">
-        <v>832.0206450000001</v>
+        <v>414.488434</v>
       </c>
       <c r="I16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="J16">
-        <v>0.3300805865050695</v>
+        <v>0.2287442882675098</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.163758666666666</v>
+        <v>3.822177333333334</v>
       </c>
       <c r="N16">
-        <v>9.491275999999999</v>
+        <v>11.466532</v>
       </c>
       <c r="O16">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="P16">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="Q16">
-        <v>877.4375088214466</v>
+        <v>528.0827657878765</v>
       </c>
       <c r="R16">
-        <v>7896.937579393019</v>
+        <v>4752.744892090888</v>
       </c>
       <c r="S16">
-        <v>0.04973989594412013</v>
+        <v>0.03613453093558155</v>
       </c>
       <c r="T16">
-        <v>0.04973989594412013</v>
+        <v>0.03613453093558155</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H17">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J17">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.16337366666667</v>
+        <v>16.18329966666667</v>
       </c>
       <c r="N17">
-        <v>45.490121</v>
+        <v>48.549899</v>
       </c>
       <c r="O17">
-        <v>0.722233085414401</v>
+        <v>0.6688494993193013</v>
       </c>
       <c r="P17">
-        <v>0.7222330854144011</v>
+        <v>0.6688494993193014</v>
       </c>
       <c r="Q17">
-        <v>788.6817582022827</v>
+        <v>793.817648194248</v>
       </c>
       <c r="R17">
-        <v>7098.135823820545</v>
+        <v>7144.358833748232</v>
       </c>
       <c r="S17">
-        <v>0.04470853843335083</v>
+        <v>0.05431767560732648</v>
       </c>
       <c r="T17">
-        <v>0.04470853843335083</v>
+        <v>0.05431767560732648</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H18">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J18">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1550,28 +1550,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.2227456666666667</v>
+        <v>0.2227456666666666</v>
       </c>
       <c r="N18">
-        <v>0.6682370000000001</v>
+        <v>0.668237</v>
       </c>
       <c r="O18">
-        <v>0.01060939957266905</v>
+        <v>0.00920599202228272</v>
       </c>
       <c r="P18">
-        <v>0.01060939957266905</v>
+        <v>0.009205992022282724</v>
       </c>
       <c r="Q18">
-        <v>11.58551176541867</v>
+        <v>10.926043816824</v>
       </c>
       <c r="R18">
-        <v>104.269605888768</v>
+        <v>98.33439435141599</v>
       </c>
       <c r="S18">
-        <v>0.0006567557733488347</v>
+        <v>0.0007476242246109105</v>
       </c>
       <c r="T18">
-        <v>0.0006567557733488347</v>
+        <v>0.0007476242246109106</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H19">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J19">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.016357666666666</v>
+        <v>3.563453666666667</v>
       </c>
       <c r="N19">
-        <v>6.049073</v>
+        <v>10.690361</v>
       </c>
       <c r="O19">
-        <v>0.09603932811449209</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="P19">
-        <v>0.0960393281144921</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="Q19">
-        <v>104.8753756696747</v>
+        <v>174.793303429272</v>
       </c>
       <c r="R19">
-        <v>943.878381027072</v>
+        <v>1573.139730863448</v>
       </c>
       <c r="S19">
-        <v>0.005945141643097515</v>
+        <v>0.01196038658954191</v>
       </c>
       <c r="T19">
-        <v>0.005945141643097516</v>
+        <v>0.01196038658954191</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H20">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J20">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.428889</v>
+        <v>0.4040503333333333</v>
       </c>
       <c r="N20">
-        <v>1.286667</v>
+        <v>1.212151</v>
       </c>
       <c r="O20">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="P20">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="Q20">
-        <v>22.307498188032</v>
+        <v>19.819337957352</v>
       </c>
       <c r="R20">
-        <v>200.767483692288</v>
+        <v>178.374041616168</v>
       </c>
       <c r="S20">
-        <v>0.001264560299156474</v>
+        <v>0.001356155752354838</v>
       </c>
       <c r="T20">
-        <v>0.001264560299156474</v>
+        <v>0.001356155752354838</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.01228800000001</v>
+        <v>49.051656</v>
       </c>
       <c r="H21">
-        <v>156.036864</v>
+        <v>147.154968</v>
       </c>
       <c r="I21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524597</v>
       </c>
       <c r="J21">
-        <v>0.0619031990312353</v>
+        <v>0.08121060965524596</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.163758666666666</v>
+        <v>3.822177333333334</v>
       </c>
       <c r="N21">
-        <v>9.491275999999999</v>
+        <v>11.466532</v>
       </c>
       <c r="O21">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="P21">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="Q21">
-        <v>164.5543269331627</v>
+        <v>187.484127725664</v>
       </c>
       <c r="R21">
-        <v>1480.988942398464</v>
+        <v>1687.357149530976</v>
       </c>
       <c r="S21">
-        <v>0.009328202882281634</v>
+        <v>0.01282876748141183</v>
       </c>
       <c r="T21">
-        <v>0.009328202882281634</v>
+        <v>0.01282876748141183</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H22">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J22">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.16337366666667</v>
+        <v>16.18329966666667</v>
       </c>
       <c r="N22">
-        <v>45.490121</v>
+        <v>48.549899</v>
       </c>
       <c r="O22">
-        <v>0.722233085414401</v>
+        <v>0.6688494993193013</v>
       </c>
       <c r="P22">
-        <v>0.7222330854144011</v>
+        <v>0.6688494993193014</v>
       </c>
       <c r="Q22">
-        <v>2897.084209926968</v>
+        <v>1720.830369120495</v>
       </c>
       <c r="R22">
-        <v>26073.75788934271</v>
+        <v>15487.47332208446</v>
       </c>
       <c r="S22">
-        <v>0.1642289800634047</v>
+        <v>0.1177493420280452</v>
       </c>
       <c r="T22">
-        <v>0.1642289800634048</v>
+        <v>0.1177493420280452</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H23">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J23">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1860,28 +1860,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.2227456666666667</v>
+        <v>0.2227456666666666</v>
       </c>
       <c r="N23">
-        <v>0.6682370000000001</v>
+        <v>0.668237</v>
       </c>
       <c r="O23">
-        <v>0.01060939957266905</v>
+        <v>0.00920599202228272</v>
       </c>
       <c r="P23">
-        <v>0.01060939957266905</v>
+        <v>0.009205992022282724</v>
       </c>
       <c r="Q23">
-        <v>42.55734692789601</v>
+        <v>23.68537416256978</v>
       </c>
       <c r="R23">
-        <v>383.016122351064</v>
+        <v>213.168367463128</v>
       </c>
       <c r="S23">
-        <v>0.002412477226662673</v>
+        <v>0.001620692703578947</v>
       </c>
       <c r="T23">
-        <v>0.002412477226662673</v>
+        <v>0.001620692703578947</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H24">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J24">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.016357666666666</v>
+        <v>3.563453666666667</v>
       </c>
       <c r="N24">
-        <v>6.049073</v>
+        <v>10.690361</v>
       </c>
       <c r="O24">
-        <v>0.09603932811449209</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="P24">
-        <v>0.0960393281144921</v>
+        <v>0.1472761581315048</v>
       </c>
       <c r="Q24">
-        <v>385.241311470584</v>
+        <v>378.9152654192205</v>
       </c>
       <c r="R24">
-        <v>3467.171803235256</v>
+        <v>3410.237388772985</v>
       </c>
       <c r="S24">
-        <v>0.02183843584674307</v>
+        <v>0.02592761261547166</v>
       </c>
       <c r="T24">
-        <v>0.02183843584674307</v>
+        <v>0.02592761261547167</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H25">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J25">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.428889</v>
+        <v>0.4040503333333333</v>
       </c>
       <c r="N25">
-        <v>1.286667</v>
+        <v>1.212151</v>
       </c>
       <c r="O25">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="P25">
-        <v>0.02042802825938606</v>
+        <v>0.01669924358543754</v>
       </c>
       <c r="Q25">
-        <v>81.94268485533601</v>
+        <v>42.96417285563822</v>
       </c>
       <c r="R25">
-        <v>737.4841636980241</v>
+        <v>386.677555700744</v>
       </c>
       <c r="S25">
-        <v>0.004645140624955488</v>
+        <v>0.002939861578056774</v>
       </c>
       <c r="T25">
-        <v>0.004645140624955488</v>
+        <v>0.002939861578056774</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>191.058024</v>
+        <v>106.3337146666667</v>
       </c>
       <c r="H26">
-        <v>573.174072</v>
+        <v>319.001144</v>
       </c>
       <c r="I26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="J26">
-        <v>0.22739055213619</v>
+        <v>0.1760475894022206</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.163758666666666</v>
+        <v>3.822177333333334</v>
       </c>
       <c r="N26">
-        <v>9.491275999999999</v>
+        <v>11.466532</v>
       </c>
       <c r="O26">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="P26">
-        <v>0.1506901586390516</v>
+        <v>0.1579691069414737</v>
       </c>
       <c r="Q26">
-        <v>604.461479266208</v>
+        <v>406.4263139680676</v>
       </c>
       <c r="R26">
-        <v>5440.153313395872</v>
+        <v>3657.836825712609</v>
       </c>
       <c r="S26">
-        <v>0.03426551837442401</v>
+        <v>0.02781008047706804</v>
       </c>
       <c r="T26">
-        <v>0.03426551837442401</v>
+        <v>0.02781008047706804</v>
       </c>
     </row>
   </sheetData>
